--- a/TestData/LV_TMTI0054728_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnFVAOpportunityAndEngagementPage.xlsx
+++ b/TestData/LV_TMTI0054728_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnFVAOpportunityAndEngagementPage.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2277FFF-C47A-4A80-8D00-D3E8A3CA4206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF631BA5-14E1-44BA-9176-F2782773B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82CB758C-F39F-4ED0-96E1-22C82DF037F2}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" xr2:uid="{82CB758C-F39F-4ED0-96E1-22C82DF037F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
-    <sheet name="AppName" sheetId="6" r:id="rId2"/>
-    <sheet name="ModuleName" sheetId="7" r:id="rId3"/>
-    <sheet name="Users" sheetId="2" r:id="rId4"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
+    <sheet name="AddOpportunity" sheetId="1" r:id="rId2"/>
+    <sheet name="AppName" sheetId="6" r:id="rId3"/>
+    <sheet name="ModuleName" sheetId="7" r:id="rId4"/>
     <sheet name="AddContact" sheetId="3" r:id="rId5"/>
     <sheet name="AssociatedOpp" sheetId="4" r:id="rId6"/>
     <sheet name="AssociatedEng" sheetId="5" r:id="rId7"/>
@@ -263,9 +263,6 @@
     <t>Engagements</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Tombstone Permission</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
   </si>
 </sst>
 </file>
@@ -672,23 +672,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B348D56F-7571-4CF0-98F5-8E40348E6DD7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9D164-33B9-46A0-985E-31691E847A14}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -774,13 +816,13 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -791,7 +833,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -821,7 +863,7 @@
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>36</v>
@@ -866,7 +908,7 @@
         <v>37</v>
       </c>
       <c r="AC2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s">
         <v>46</v>
@@ -877,7 +919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C755067-F87B-4357-BCC1-0BC2E23BD904}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -885,14 +927,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -902,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA43E8D6-EA7D-405A-B53B-AE49A8F5D9AC}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -910,63 +952,21 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B348D56F-7571-4CF0-98F5-8E40348E6DD7}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -982,9 +982,9 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1049,22 +1049,22 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1082,22 +1082,22 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1108,15 +1108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1124,6 +1115,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,14 +1379,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23F366BA-16A6-4725-BA71-494811FA3BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77E35EA-797B-4D82-9CB3-80BB3BF000E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1400,6 +1392,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23F366BA-16A6-4725-BA71-494811FA3BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
